--- a/similarities/split_global/harmonic_similarity_timestamps_163.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_163.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,750 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Ab:maj', 'Ab/7', 'F:min']]</t>
+          <t>['F#:min', 'C#', 'F#:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E', 'E/7', 'C#:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:55.697000', '0:01:00.759000')]</t>
+          <t>('0:00:03.744784', '0:00:06.774988')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:10.501791', '0:00:15.122562')]</t>
+          <t>('0:00:08.540000', '0:00:14.080000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=55.697']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-121#t=10.501791']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G/3', 'C', 'G']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:40.490000', '0:00:47.860000')]</t>
+          <t>('0:00:13.079206', '0:00:17.500916')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:37.840000', '0:02:40.980000'), ('0:02:34.760000', '0:02:39.840000')]</t>
+          <t>('0:01:09.360000', '0:01:13.200000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:24.401147', '0:00:28.461467'), ('0:00:08.158789', '0:00:22.589990')]</t>
+          <t>('0:02:18.020000', '0:02:22.340000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=157.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=24.401147', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=8.158789']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>isophonics_218</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>isophonics_194</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['F', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['G', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:40.820000', '0:00:43.620000')]</t>
+          <t>('0:00:34.555000', '0:00:40.513000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:19.480000', '0:00:25.860000')]</t>
+          <t>('0:01:13.125602', '0:01:18.292043')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=34.555</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=73.125602</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>isophonics_35</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'E:maj/B']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G:7', 'C', 'C/7']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:04:31.220000', '0:04:38.420000')]</t>
+          <t>('0:03:35.660000', '0:03:42.960000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:03.840000', '0:01:05.240000')]</t>
+          <t>('0:00:12.851927', '0:00:16.810929')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=215.66</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=12.851927</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>isophonics_231</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C', 'D', 'G']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:23.260000', '0:00:33.620000')]</t>
+          <t>('0:00:12.446000', '0:00:16.277000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:07.560000', '0:00:21.800000')]</t>
+          <t>('0:00:17.014988', '0:00:20.892721')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=12.446</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=7.56']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-231#t=17.014988</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>isophonics_184</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F#:min', 'B:min', 'E']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>['D:min', 'G:min', 'C:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:00:27.974807', '0:00:36.519750')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+          <t>('0:02:16.724000', '0:02:21.298000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-184#t=27.974807</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=136.724</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>jaah_13</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Db', 'Eb:min7', 'Ab:7'], ['Gb:maj6', 'Ab:7', 'Db']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'A:min7/C', 'D:7'], ['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:38.860000', '0:00:42.220000'), ('0:00:37.750000', '0:00:41.100000')]</t>
+          <t>('0:00:19.860000', '0:00:22.320000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:12.240000', '0:01:16.560000'), ('0:01:13.300000', '0:01:20.180000')]</t>
+          <t>('0:00:06.590000', '0:00:14.660000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=38.86', 'https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=37.75']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=19.86</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=72.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=73.3']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['B:min7/4', 'E:7', 'A']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:47.371000', '0:00:50.945000')]</t>
+          <t>('0:00:21.680000', '0:00:32.360000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:17.680000', '0:00:20.040000')]</t>
+          <t>('0:00:55.400000', '0:01:03.680000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=47.371']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=21.68</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=17.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=55.4</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'Eb']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:51.839081', '0:01:03.042709')]</t>
+          <t>('0:01:10.980000', '0:01:20.440000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:02:12.380000', '0:02:14')]</t>
+          <t>('0:03:46.620000', '0:03:52.800000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=51.839081']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=132.38']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_176</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['G:7', 'C:min', 'B:dim7/C', 'C:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['E:7', 'A:min', 'G#:dim7', 'A:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:02.300000', '0:00:09.880000'), ('0:00:01.140000', '0:00:07.700000')]</t>
+          <t>('0:01:06.920000', '0:01:15.860000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:08.240000', '0:00:18.540000'), ('0:00:06.880000', '0:00:15.960000')]</t>
+          <t>('0:00:18.280000', '0:00:23.840000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=2.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=1.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=66.92</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=6.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=18.28</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_115</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['A:7', 'D:min', 'D:min/A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['C:7', 'F:min/C', 'F:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:01.760000', '0:01:09.340000')]</t>
+          <t>('0:00:26.980000', '0:00:45.840000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:12.430000', '0:00:17.230000')]</t>
+          <t>('0:00:36.280000', '0:00:38')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=61.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=26.98</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=36.28</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_7</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>schubert-winterreise_39</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D'], ['D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['A:min/E', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:7', 'Eb', 'Bb'], ['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:54.760000', '0:01:04.340000'), ('0:01:08.980000', '0:01:20.440000')]</t>
+          <t>('0:01:01.880000', '0:01:07.800000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:31.370000', '0:00:43.560000'), ('0:00:48.250000', '0:00:59.490000')]</t>
+          <t>('0:00:27.160000', '0:00:38.460000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=54.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=68.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=61.88</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=31.37', 'https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-39#t=27.16</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F', 'C:7', 'F']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:04.080000', '0:01:13.880000')]</t>
+          <t>('0:00:25.220000', '0:00:27.170000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:11.210000', '0:00:14.450000')]</t>
+          <t>('0:04:13.840000', '0:04:19.880000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=11.21']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=253.84</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Cb', 'Gb:7', 'Cb']]</t>
+          <t>['B', 'E', 'B']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:46.759000', '0:00:50.551000')]</t>
+          <t>('0:00:01.421269', '0:00:26.162131')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:07.220000', '0:01:12.400000')]</t>
+          <t>('0:00:34.410000', '0:00:39.540000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=46.759']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=67.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
